--- a/biology/Botanique/Jardin_Clara-Zetkin/Jardin_Clara-Zetkin.xlsx
+++ b/biology/Botanique/Jardin_Clara-Zetkin/Jardin_Clara-Zetkin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Clara-Zetkin est un square du 13e arrondissement de Paris. 
@@ -512,7 +524,9 @@
           <t>Situation et  accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet espace vert de 6 545 m2 est délimité par la rue Théroigne-de-Méricourt, le lycée professionnel Nicolas-Louis Vauquelin et le stade Boutroux.
 Le site est desservi à proximité par la ligne 7 à la station Porte-d'Ivry et par la ligne 3a du tramway d'Île-de-France à la station Maryse-Bastié.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte le nom de l'enseignante, journaliste, femme politique et féministe allemande, Clara Zetkin (1857-1933)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte le nom de l'enseignante, journaliste, femme politique et féministe allemande, Clara Zetkin (1857-1933).
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jardin créé en 1967 portait initialement le nom de « square Boutroux », du nom du philosophe Émile Boutroux (1845-1921), parce qu'il est desservi par l'avenue Boutroux. Il a été renommé « jardin Clara-Zetkin » en 2016.
 </t>
